--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -39,10 +33,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>остаток 3,74р</t>
-  </si>
-  <si>
-    <t>оплачено 910,34 +3,74=914,08</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -50,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,19 +120,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -147,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,29 +154,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,292 +469,184 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43246</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43464</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>21390</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2">
+        <v>21940</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43613</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>21600</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>22158</v>
+      </c>
+      <c r="D3" s="2">
         <f>C3-C2</f>
-        <v>210</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
+        <v>218</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="5">
         <f>D3*E3</f>
-        <v>900.9</v>
+        <v>996.2600000000001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>996.26</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43372</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43623</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>21710</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>22358</v>
+      </c>
+      <c r="D4" s="2">
         <f>C4-C3</f>
-        <v>110</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
         <f>D4*E4</f>
-        <v>495</v>
+        <v>914</v>
+      </c>
+      <c r="G4" s="12">
+        <v>914</v>
+      </c>
+      <c r="H4" s="12">
+        <v>910.34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43464</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43766</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>21940</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>22558</v>
+      </c>
+      <c r="D5" s="2">
         <f>C5-C4</f>
-        <v>230</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="5">
         <f>D5*E5</f>
-        <v>1035</v>
+        <v>898</v>
+      </c>
+      <c r="G5" s="12">
+        <v>898</v>
+      </c>
+      <c r="H5" s="12">
+        <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43613</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>22158</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C5</f>
-        <v>218</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>996.2600000000001</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(G3:G5)</f>
+        <v>2808.26</v>
+      </c>
+      <c r="H6" s="12">
+        <f>SUM(H3:H5)</f>
+        <v>2808.34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43623</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>22358</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8-C6</f>
-        <v>200</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f>D8*E8</f>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43766</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>22558</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <f>SUM(H6,-G6)</f>
+        <v>7.999999999992724E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,35 +616,63 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="3">
+        <v>43934</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22944</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C5</f>
+        <v>386</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>1733.14</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1733.14</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1733.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="12">
-        <f>SUM(G3:G5)</f>
-        <v>2808.26</v>
-      </c>
-      <c r="H6" s="12">
-        <f>SUM(H3:H5)</f>
-        <v>2808.34</v>
+      <c r="G7" s="12">
+        <f>SUM(G3:G6)</f>
+        <v>4541.4000000000005</v>
+      </c>
+      <c r="H7" s="12">
+        <f>SUM(H3:H6)</f>
+        <v>4541.4800000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <f>SUM(H6,-G6)</f>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <f>SUM(H7,-G7)</f>
         <v>7.999999999992724E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>остаток</t>
@@ -132,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,7 +150,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,7 +468,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,8 +524,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -552,10 +548,10 @@
         <f>D3*E3</f>
         <v>996.2600000000001</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>996.26</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -580,10 +576,10 @@
         <f>D4*E4</f>
         <v>914</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>914</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>910.34</v>
       </c>
     </row>
@@ -608,10 +604,10 @@
         <f>D5*E5</f>
         <v>898</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>898</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>898</v>
       </c>
     </row>
@@ -636,44 +632,54 @@
         <f>D6*E6</f>
         <v>1733.14</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1733.14</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1733.14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="12">
-        <f>SUM(G3:G6)</f>
-        <v>4541.4000000000005</v>
-      </c>
-      <c r="H7" s="12">
-        <f>SUM(H3:H6)</f>
-        <v>4541.4800000000005</v>
+      <c r="A7" s="3">
+        <v>44043</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23244</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C6</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>1413</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1413</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <f>SUM(H7,-G7)</f>
-        <v>7.999999999992724E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>пени за 165 дн</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -79,15 +85,27 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,11 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -158,6 +189,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,19 +724,91 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23644</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C7</f>
+        <v>400</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>1884</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1884</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44209</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>235.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>235.5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="21">
+        <f>SUM(G3:G9)</f>
+        <v>8073.9000000000005</v>
+      </c>
+      <c r="H10" s="21">
+        <f>SUM(H3:H9)</f>
+        <v>7838.4800000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <f>SUM(H7,-G7)</f>
-        <v>0</v>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
+        <v>-235.42000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,14 +595,14 @@
         <v>22158</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-C2</f>
+        <f t="shared" ref="D3:D10" si="0">C3-C2</f>
         <v>218</v>
       </c>
       <c r="E3" s="7">
         <v>4.57</v>
       </c>
       <c r="F3" s="5">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
         <v>996.2600000000001</v>
       </c>
       <c r="G3" s="11">
@@ -623,14 +623,14 @@
         <v>22358</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4" s="7">
         <v>4.57</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>914</v>
       </c>
       <c r="G4" s="11">
@@ -651,14 +651,14 @@
         <v>22558</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C4</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E5" s="7">
         <v>4.49</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
       <c r="G5" s="11">
@@ -679,14 +679,14 @@
         <v>22944</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C5</f>
+        <f t="shared" si="0"/>
         <v>386</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>1733.14</v>
       </c>
       <c r="G6" s="11">
@@ -707,14 +707,14 @@
         <v>23244</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C6</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E7" s="7">
         <v>4.71</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>1413</v>
       </c>
       <c r="G7" s="11">
@@ -735,14 +735,14 @@
         <v>23644</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C7</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>1884</v>
       </c>
       <c r="G8" s="11">
@@ -779,35 +779,63 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="A10" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24054</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C8</f>
+        <v>410</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <v>1931.1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1931.1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1931.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="21">
-        <f>SUM(G3:G9)</f>
-        <v>8073.9000000000005</v>
-      </c>
-      <c r="H10" s="21">
-        <f>SUM(H3:H9)</f>
-        <v>7838.4800000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="21">
+        <f>SUM(G3:G10)</f>
+        <v>10005</v>
+      </c>
+      <c r="H11" s="21">
+        <f>SUM(H3:H10)</f>
+        <v>9769.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>SUM(H11,-G11)</f>
         <v>-235.42000000000007</v>
       </c>
     </row>

--- a/sputnik/personal/ee/164ee.xlsx
+++ b/sputnik/personal/ee/164ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>22158</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">C3-C2</f>
+        <f t="shared" ref="D3:D8" si="0">C3-C2</f>
         <v>218</v>
       </c>
       <c r="E3" s="7">
@@ -807,36 +807,64 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="A11" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24294</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C10</f>
+        <v>240</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11" si="3">D11*E11</f>
+        <v>1190.4000000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1190.4000000000001</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21">
-        <f>SUM(G3:G10)</f>
-        <v>10005</v>
-      </c>
-      <c r="H11" s="21">
-        <f>SUM(H3:H10)</f>
-        <v>9769.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="21">
+        <f>SUM(G3:G11)</f>
+        <v>11195.4</v>
+      </c>
+      <c r="H12" s="21">
+        <f>SUM(H3:H11)</f>
+        <v>10959.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f>SUM(H11,-G11)</f>
-        <v>-235.42000000000007</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>-235.81999999999971</v>
       </c>
     </row>
   </sheetData>
